--- a/NformTester/NformTester/Keywordscripts/600.40.30.10_RightsCanBeInvokedAndRevokedForConfigureDevices.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.40.30.10_RightsCanBeInvokedAndRevokedForConfigureDevices.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="-900" yWindow="30" windowWidth="8625" windowHeight="7830"/>
@@ -1196,7 +1196,7 @@
     <definedName name="Pause">'Form DataValDepend'!$CD$1</definedName>
     <definedName name="PauseCol">'Form DataValDepend'!$CD:$CD</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -4116,7 +4116,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
     <cellStyle name="常规 2 2" xfId="2"/>
   </cellStyles>
@@ -6297,7 +6297,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -6583,13 +6583,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="C116" workbookViewId="0">
+      <selection activeCell="E120" sqref="E120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="2" width="16.125" customWidth="1"/>
+    <col min="1" max="2" width="11" customWidth="1"/>
     <col min="4" max="4" width="13.875" customWidth="1"/>
     <col min="5" max="5" width="30.375" customWidth="1"/>
     <col min="6" max="6" width="52.875" customWidth="1"/>

--- a/NformTester/NformTester/Keywordscripts/600.40.30.10_RightsCanBeInvokedAndRevokedForConfigureDevices.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.40.30.10_RightsCanBeInvokedAndRevokedForConfigureDevices.xlsx
@@ -3684,199 +3684,199 @@
     <t>SingleManual</t>
   </si>
   <si>
+    <t>"Description for GXT"</t>
+  </si>
+  <si>
+    <t>"Liebert GXT UPS/WebCard"</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"SNMP"</t>
+  </si>
+  <si>
+    <t>;Add one device.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>;Add power user and user User.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pause</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Configure</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Click</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>FormUserProperties</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>SetTextValue</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>"Nform G2"</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>"Nform Testing"</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>"nform"</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>nformg2@testing.com</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>nform@testing.com</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>"N/A"</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>"12365486"</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>"9854573256"</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>VerifyProperty</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Text</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Users</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>;T</t>
+  </si>
+  <si>
+    <t>"Users"</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>"All Devices"</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>FormUsers_and_Groups</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Close</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>"Power Users"</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>"testuser"</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>"testpoweruser"</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>;Login as one power user.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>;Login as one user.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>;Login as admin user.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"admin"</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">;If ‘Discover new device’ is checked in previous step uncheck it and vice versa. On selecting any of the ‘Discover new device’ or ‘Configure Data Logging’ or ‘Edit device definition’; ‘Configure Device’ should get deactivated. </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>;Clear up</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Del_Device</t>
+  </si>
+  <si>
+    <t>"AllDel"</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pause</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>;T</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>144</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>$SNMP_device_0$</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>$SNMP_GXT_0$</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"Description for GXT"</t>
-  </si>
-  <si>
-    <t>"Liebert GXT UPS/WebCard"</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"SNMP"</t>
-  </si>
-  <si>
-    <t>;Add one device.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>;Add power user and user User.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pause</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Configure</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Click</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>FormUserProperties</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>SetTextValue</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>"Nform G2"</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>"Nform Testing"</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>"nform"</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>nformg2@testing.com</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>nform@testing.com</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>"N/A"</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>"12365486"</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>"9854573256"</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>VerifyProperty</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Text</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Users</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>;T</t>
-  </si>
-  <si>
-    <t>"Users"</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>"All Devices"</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>OK</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>FormUsers_and_Groups</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Close</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>"Power Users"</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>"testuser"</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>"testpoweruser"</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>;Login as one power user.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>;Login as one user.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>;Login as admin user.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"admin"</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">;If ‘Discover new device’ is checked in previous step uncheck it and vice versa. On selecting any of the ‘Discover new device’ or ‘Configure Data Logging’ or ‘Edit device definition’; ‘Configure Device’ should get deactivated. </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>;Clear up</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>F</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Del_Device</t>
-  </si>
-  <si>
-    <t>"AllDel"</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>T</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>T</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pause</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>T</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>;T</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>144</t>
+    <t>$NAME_SNMP_GXT_0$</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -6583,8 +6583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C116" workbookViewId="0">
-      <selection activeCell="E120" sqref="E120"/>
+    <sheetView tabSelected="1" topLeftCell="D113" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6596,7 +6596,7 @@
     <col min="7" max="7" width="18.875" customWidth="1"/>
     <col min="8" max="8" width="17.875" customWidth="1"/>
     <col min="9" max="9" width="16.875" customWidth="1"/>
-    <col min="10" max="10" width="12.25" customWidth="1"/>
+    <col min="10" max="10" width="16.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="30.75" customHeight="1">
@@ -6744,7 +6744,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="2"/>
@@ -6781,20 +6781,20 @@
       <c r="H6" s="2" t="s">
         <v>815</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="I6" s="17" t="s">
+        <v>864</v>
+      </c>
+      <c r="J6" s="17" t="s">
+        <v>865</v>
+      </c>
+      <c r="K6" s="2" t="s">
         <v>816</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="L6" s="2" t="s">
         <v>817</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="M6" s="2" t="s">
         <v>818</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>819</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>820</v>
       </c>
       <c r="N6" s="18"/>
       <c r="O6" s="3"/>
@@ -6804,13 +6804,13 @@
         <v>751</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="C7" s="2">
         <v>6</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -6833,10 +6833,10 @@
         <v>7</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="F8" s="4">
         <v>5</v>
@@ -6866,7 +6866,7 @@
         <v>19</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>2</v>
@@ -6927,7 +6927,7 @@
         <v>236</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="2"/>
@@ -6950,16 +6950,16 @@
         <v>788</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>250</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
@@ -6981,16 +6981,16 @@
         <v>788</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>252</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
@@ -7012,16 +7012,16 @@
         <v>788</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>249</v>
       </c>
       <c r="G14" s="4" t="s">
+        <v>826</v>
+      </c>
+      <c r="H14" s="4" t="s">
         <v>828</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>830</v>
       </c>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
@@ -7043,16 +7043,16 @@
         <v>788</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>9</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
@@ -7074,16 +7074,16 @@
         <v>788</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>251</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
@@ -7105,16 +7105,16 @@
         <v>788</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>253</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
@@ -7136,16 +7136,16 @@
         <v>788</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>254</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
@@ -7167,16 +7167,16 @@
         <v>788</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>255</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
@@ -7200,16 +7200,16 @@
         <v>788</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>167</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
@@ -7231,16 +7231,16 @@
         <v>788</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>256</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
@@ -7262,22 +7262,22 @@
         <v>788</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>257</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>807</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
@@ -7290,10 +7290,10 @@
         <v>22</v>
       </c>
       <c r="D23" s="20" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>257</v>
@@ -7302,7 +7302,7 @@
         <v>13</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
@@ -7320,7 +7320,7 @@
         <v>788</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>258</v>
@@ -7329,7 +7329,7 @@
         <v>13</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
@@ -7347,7 +7347,7 @@
         <v>788</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>259</v>
@@ -7372,7 +7372,7 @@
         <v>788</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>260</v>
@@ -7397,7 +7397,7 @@
         <v>788</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="F27" s="4" t="s">
         <v>261</v>
@@ -7422,7 +7422,7 @@
         <v>788</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="F28" s="4" t="s">
         <v>262</v>
@@ -7447,7 +7447,7 @@
         <v>788</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="F29" s="4" t="s">
         <v>263</v>
@@ -7469,16 +7469,16 @@
         <v>29</v>
       </c>
       <c r="D30" s="20" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="F30" s="4" t="s">
         <v>264</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="H30" s="4"/>
       <c r="I30" s="2"/>
@@ -7497,13 +7497,13 @@
         <v>788</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="H31" s="4"/>
       <c r="I31" s="2"/>
@@ -7528,7 +7528,7 @@
         <v>236</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="H32" s="4"/>
       <c r="I32" s="2"/>
@@ -7547,16 +7547,16 @@
         <v>788</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="F33" s="4" t="s">
         <v>250</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
@@ -7574,16 +7574,16 @@
         <v>788</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="F34" s="4" t="s">
         <v>252</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
@@ -7601,16 +7601,16 @@
         <v>788</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="F35" s="4" t="s">
         <v>249</v>
       </c>
       <c r="G35" s="4" t="s">
+        <v>826</v>
+      </c>
+      <c r="H35" s="4" t="s">
         <v>828</v>
-      </c>
-      <c r="H35" s="4" t="s">
-        <v>830</v>
       </c>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
@@ -7628,16 +7628,16 @@
         <v>788</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="F36" s="4" t="s">
         <v>9</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
@@ -7655,16 +7655,16 @@
         <v>788</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="F37" s="4" t="s">
         <v>251</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
@@ -7682,16 +7682,16 @@
         <v>788</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="F38" s="4" t="s">
         <v>253</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
@@ -7709,16 +7709,16 @@
         <v>788</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="F39" s="4" t="s">
         <v>254</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
@@ -7736,16 +7736,16 @@
         <v>788</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="F40" s="4" t="s">
         <v>255</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
@@ -7763,16 +7763,16 @@
         <v>788</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="F41" s="4" t="s">
         <v>167</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
@@ -7790,16 +7790,16 @@
         <v>788</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="F42" s="4" t="s">
         <v>256</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
@@ -7817,22 +7817,22 @@
         <v>788</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="F43" s="4" t="s">
         <v>257</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="I43" s="2" t="s">
         <v>807</v>
       </c>
       <c r="J43" s="4" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="K43" s="2"/>
       <c r="L43" s="2"/>
@@ -7845,10 +7845,10 @@
         <v>43</v>
       </c>
       <c r="D44" s="20" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="F44" s="4" t="s">
         <v>257</v>
@@ -7857,7 +7857,7 @@
         <v>13</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
@@ -7875,7 +7875,7 @@
         <v>788</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="F45" s="4" t="s">
         <v>258</v>
@@ -7884,7 +7884,7 @@
         <v>13</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
@@ -7902,7 +7902,7 @@
         <v>788</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="F46" s="4" t="s">
         <v>259</v>
@@ -7927,7 +7927,7 @@
         <v>788</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="F47" s="4" t="s">
         <v>260</v>
@@ -7952,7 +7952,7 @@
         <v>788</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="F48" s="4" t="s">
         <v>261</v>
@@ -7977,7 +7977,7 @@
         <v>788</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="F49" s="4" t="s">
         <v>262</v>
@@ -8002,7 +8002,7 @@
         <v>788</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="F50" s="4" t="s">
         <v>263</v>
@@ -8024,16 +8024,16 @@
         <v>50</v>
       </c>
       <c r="D51" s="20" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="F51" s="4" t="s">
         <v>264</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="H51" s="4"/>
       <c r="I51" s="2"/>
@@ -8052,13 +8052,13 @@
         <v>788</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="H52" s="4"/>
       <c r="I52" s="2"/>
@@ -8077,13 +8077,13 @@
         <v>788</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="H53" s="4"/>
       <c r="I53" s="2"/>
@@ -9194,7 +9194,7 @@
         <v>92</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="E93" s="4"/>
       <c r="F93" s="2"/>
@@ -9316,10 +9316,10 @@
         <v>97</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="F98" s="2">
         <v>2</v>
@@ -9416,10 +9416,10 @@
         <v>101</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="F102" s="2">
         <v>2</v>
@@ -9462,10 +9462,10 @@
         <v>103</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="F104" s="2">
         <v>2</v>
@@ -9586,10 +9586,10 @@
         <v>108</v>
       </c>
       <c r="D109" s="6" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="E109" s="4" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="F109" s="2">
         <v>2</v>
@@ -9734,7 +9734,7 @@
         <v>114</v>
       </c>
       <c r="D115" s="5" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="E115" s="4"/>
       <c r="F115" s="2"/>
@@ -9812,10 +9812,10 @@
       </c>
       <c r="G118" s="2"/>
       <c r="H118" s="4" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="I118" s="4" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="J118" s="2" t="s">
         <v>787</v>
@@ -9905,7 +9905,7 @@
         <v>121</v>
       </c>
       <c r="D122" s="5" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="E122" s="4"/>
       <c r="F122" s="2"/>
@@ -9983,10 +9983,10 @@
       </c>
       <c r="G125" s="2"/>
       <c r="H125" s="4" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="I125" s="4" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="J125" s="2" t="s">
         <v>787</v>
@@ -10076,7 +10076,7 @@
         <v>128</v>
       </c>
       <c r="D129" s="5" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="E129" s="4"/>
       <c r="F129" s="2"/>
@@ -10157,7 +10157,7 @@
         <v>781</v>
       </c>
       <c r="I132" s="4" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="J132" s="2" t="s">
         <v>787</v>
@@ -10247,7 +10247,7 @@
         <v>135</v>
       </c>
       <c r="D136" s="5" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="E136" s="4"/>
       <c r="F136" s="2"/>
@@ -10265,17 +10265,17 @@
         <v>136</v>
       </c>
       <c r="D137" s="6" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="E137" s="2" t="s">
         <v>572</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="G137" s="2"/>
       <c r="H137" s="2" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="I137" s="2"/>
       <c r="J137" s="2"/>
@@ -10313,7 +10313,7 @@
         <v>138</v>
       </c>
       <c r="D139" s="6" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="E139" s="2" t="s">
         <v>19</v>
@@ -10337,7 +10337,7 @@
         <v>139</v>
       </c>
       <c r="D140" s="6" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="E140" s="4" t="s">
         <v>235</v>
@@ -10349,7 +10349,7 @@
         <v>56</v>
       </c>
       <c r="H140" s="4" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="I140" s="2"/>
       <c r="J140" s="2"/>
@@ -10363,7 +10363,7 @@
         <v>140</v>
       </c>
       <c r="D141" s="6" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="E141" s="4" t="s">
         <v>235</v>
@@ -10387,7 +10387,7 @@
         <v>141</v>
       </c>
       <c r="D142" s="6" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="E142" s="4" t="s">
         <v>235</v>
@@ -10399,7 +10399,7 @@
         <v>56</v>
       </c>
       <c r="H142" s="4" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="I142" s="2"/>
       <c r="J142" s="2"/>
@@ -10413,7 +10413,7 @@
         <v>142</v>
       </c>
       <c r="D143" s="6" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="E143" s="4" t="s">
         <v>235</v>
@@ -10437,7 +10437,7 @@
         <v>143</v>
       </c>
       <c r="D144" s="6" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="E144" s="4" t="s">
         <v>235</v>
@@ -10461,10 +10461,10 @@
         <v>144</v>
       </c>
       <c r="D145" s="20" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="E145" s="4" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="F145" s="4">
         <v>5</v>
